--- a/Code/Results/Cases/Case_2_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.415868199989</v>
+        <v>11.76875250345507</v>
       </c>
       <c r="C2">
-        <v>14.16977489334842</v>
+        <v>9.783263982431103</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.13906500561053</v>
+        <v>16.64426960555375</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>18.05374385432033</v>
+        <v>16.36700783947495</v>
       </c>
       <c r="H2">
-        <v>6.610231450914407</v>
+        <v>10.85676619307149</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.29727476009291</v>
+        <v>15.31887641550286</v>
       </c>
       <c r="O2">
-        <v>10.71899126225469</v>
+        <v>14.86898206126878</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.11846016990942</v>
+        <v>11.04976545271134</v>
       </c>
       <c r="C3">
-        <v>13.41747071038747</v>
+        <v>9.431048272091612</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.95828088535667</v>
+        <v>15.69130998461567</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>17.03749710960242</v>
+        <v>16.22074674863227</v>
       </c>
       <c r="H3">
-        <v>6.605504595103649</v>
+        <v>10.89943263847244</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.31480055237084</v>
+        <v>15.33975267415992</v>
       </c>
       <c r="O3">
-        <v>10.48402553580048</v>
+        <v>14.9101061168582</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.27636464351454</v>
+        <v>10.58164607670726</v>
       </c>
       <c r="C4">
-        <v>12.93355086502018</v>
+        <v>9.206720496589162</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.55467603507051</v>
+        <v>15.08038736009158</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.41776921509214</v>
+        <v>16.14055115690676</v>
       </c>
       <c r="H4">
-        <v>6.610198085249444</v>
+        <v>10.92813508225121</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.32938703009585</v>
+        <v>15.35435419603894</v>
       </c>
       <c r="O4">
-        <v>10.35457967525299</v>
+        <v>14.94063351715365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.9217564208621</v>
+        <v>10.38420636238841</v>
       </c>
       <c r="C5">
-        <v>12.73092663586813</v>
+        <v>9.113373427048833</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.9661428674659</v>
+        <v>14.82520848471167</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.16666854790603</v>
+        <v>16.11032450579814</v>
       </c>
       <c r="H5">
-        <v>6.613924735688531</v>
+        <v>10.94045961441528</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.33627274658008</v>
+        <v>15.36075373011077</v>
       </c>
       <c r="O5">
-        <v>10.30548379275394</v>
+        <v>14.9543925104811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.86218260514134</v>
+        <v>10.35101932346483</v>
       </c>
       <c r="C6">
-        <v>12.69695725525259</v>
+        <v>9.097759585916151</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.86740891131505</v>
+        <v>14.78246917209293</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.12507268133159</v>
+        <v>16.10545453498606</v>
       </c>
       <c r="H6">
-        <v>6.614650306004174</v>
+        <v>10.94254397153341</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.33747240249776</v>
+        <v>15.36184352840801</v>
       </c>
       <c r="O6">
-        <v>10.29754967490691</v>
+        <v>14.956756586761</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.27162862596988</v>
+        <v>10.57901032984231</v>
       </c>
       <c r="C7">
-        <v>12.93083999606506</v>
+        <v>9.205469271009816</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.54680628990769</v>
+        <v>15.07697073574904</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.41437640304863</v>
+        <v>16.14013353104891</v>
       </c>
       <c r="H7">
-        <v>6.610241125852288</v>
+        <v>10.92829875474677</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.32947610715114</v>
+        <v>15.35443868212986</v>
       </c>
       <c r="O7">
-        <v>10.35390286479071</v>
+        <v>14.94081374705108</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.97795023765236</v>
+        <v>11.5263914581252</v>
       </c>
       <c r="C8">
-        <v>13.91500436480032</v>
+        <v>9.663548666584678</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.40034467701928</v>
+        <v>16.32118758913177</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>17.70266592107396</v>
+        <v>16.31460732282113</v>
       </c>
       <c r="H8">
-        <v>6.606967306372042</v>
+        <v>10.87095653797922</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.30251119919675</v>
+        <v>15.32570491134944</v>
       </c>
       <c r="O8">
-        <v>10.63485974752418</v>
+        <v>14.88206165448343</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.96445791260925</v>
+        <v>13.17199167523131</v>
       </c>
       <c r="C9">
-        <v>15.666877959339</v>
+        <v>10.49413797716402</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.49864713553855</v>
+        <v>18.67978125205491</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>20.27264849579557</v>
+        <v>16.73098608743184</v>
       </c>
       <c r="H9">
-        <v>6.665104563411671</v>
+        <v>10.77846819091577</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28093613356147</v>
+        <v>15.2834718158024</v>
       </c>
       <c r="O9">
-        <v>11.30586453504286</v>
+        <v>14.80905814384943</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.94219501288847</v>
+        <v>14.25123342279154</v>
       </c>
       <c r="C10">
-        <v>16.84235459132698</v>
+        <v>11.05883435247552</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.96390796961371</v>
+        <v>20.33890945944937</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>22.29557267253215</v>
+        <v>17.07899124896133</v>
       </c>
       <c r="H10">
-        <v>6.752995879715375</v>
+        <v>10.72279743622195</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28552510304758</v>
+        <v>15.26099783240557</v>
       </c>
       <c r="O10">
-        <v>11.87444593223808</v>
+        <v>14.78157717454036</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.79574577153342</v>
+        <v>14.71404772981935</v>
       </c>
       <c r="C11">
-        <v>17.35261334519031</v>
+        <v>11.3051191318475</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.4851041819464</v>
+        <v>21.05096805927518</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>23.20524897163298</v>
+        <v>17.2456579699058</v>
       </c>
       <c r="H11">
-        <v>6.804017053825989</v>
+        <v>10.70016168518192</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.29235829063763</v>
+        <v>15.25262046682644</v>
       </c>
       <c r="O11">
-        <v>12.14986768323497</v>
+        <v>14.77483138689691</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.11240926181739</v>
+        <v>14.88526255942038</v>
       </c>
       <c r="C12">
-        <v>17.5423150567822</v>
+        <v>11.39680681745921</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.0537361352635</v>
+        <v>21.31450442040589</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>23.54824637176188</v>
+        <v>17.30990001103461</v>
       </c>
       <c r="H12">
-        <v>6.825023837098879</v>
+        <v>10.69197874622983</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.29565449475225</v>
+        <v>15.24971268020281</v>
       </c>
       <c r="O12">
-        <v>12.25659872162033</v>
+        <v>14.77310970222185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.04450044705716</v>
+        <v>14.84856810845013</v>
       </c>
       <c r="C13">
-        <v>17.50161594506525</v>
+        <v>11.37713102108689</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.9315917903054</v>
+        <v>21.25801812906082</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>23.47444010264682</v>
+        <v>17.29601531870635</v>
       </c>
       <c r="H13">
-        <v>6.820423096893158</v>
+        <v>10.69372376772159</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.29491265607753</v>
+        <v>15.25032717381931</v>
       </c>
       <c r="O13">
-        <v>12.23350358046026</v>
+        <v>14.77344338470698</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.82192882083663</v>
+        <v>14.72821467350176</v>
       </c>
       <c r="C14">
-        <v>17.36829077560849</v>
+        <v>11.31269416584684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.53203122841007</v>
+        <v>21.07277151160761</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>23.23349671483657</v>
+        <v>17.25092100311338</v>
       </c>
       <c r="H14">
-        <v>6.805710939470947</v>
+        <v>10.69948066764736</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.29261511646426</v>
+        <v>15.25237594516685</v>
       </c>
       <c r="O14">
-        <v>12.15859956601501</v>
+        <v>14.77467302544808</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.68474570317692</v>
+        <v>14.65396836194949</v>
       </c>
       <c r="C15">
-        <v>17.28616672015912</v>
+        <v>11.27301822421703</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.28634004445254</v>
+        <v>20.95850858006504</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>23.08572187671082</v>
+        <v>17.22344424352857</v>
       </c>
       <c r="H15">
-        <v>6.796921819240796</v>
+        <v>10.70305761877106</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.29130088257223</v>
+        <v>15.25366529938176</v>
       </c>
       <c r="O15">
-        <v>12.11303652924378</v>
+        <v>14.77553481126771</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.88549144186099</v>
+        <v>14.22042142469198</v>
       </c>
       <c r="C16">
-        <v>16.80851493738674</v>
+        <v>11.04252127669481</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.86342733438289</v>
+        <v>20.29151865693921</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>22.23591273313865</v>
+        <v>17.06826120938054</v>
       </c>
       <c r="H16">
-        <v>6.749892130180354</v>
+        <v>10.72433102283695</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.28517625446231</v>
+        <v>15.26158238313086</v>
       </c>
       <c r="O16">
-        <v>11.85678585678871</v>
+        <v>14.78213430153499</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.3834102708279</v>
+        <v>13.94724897119194</v>
       </c>
       <c r="C17">
-        <v>16.50921626220581</v>
+        <v>10.89836581732628</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.9767396050443</v>
+        <v>19.87143271024959</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>21.71188623659443</v>
+        <v>16.97515124039662</v>
       </c>
       <c r="H17">
-        <v>6.723938961566926</v>
+        <v>10.73807177962918</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.28265285772728</v>
+        <v>15.26691144763762</v>
       </c>
       <c r="O17">
-        <v>11.70389551440019</v>
+        <v>14.78766090471252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.09027913532121</v>
+        <v>13.78747849111957</v>
       </c>
       <c r="C18">
-        <v>16.33476342390831</v>
+        <v>10.81445640698349</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.46151321302766</v>
+        <v>19.62579047592796</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>21.40947927137869</v>
+        <v>16.92238808757671</v>
       </c>
       <c r="H18">
-        <v>6.710044603461015</v>
+        <v>10.74622809576839</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.2816465316645</v>
+        <v>15.27015041192342</v>
       </c>
       <c r="O18">
-        <v>11.61753424232418</v>
+        <v>14.79138112824096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.99028116148434</v>
+        <v>13.73292794641661</v>
       </c>
       <c r="C19">
-        <v>16.27530129172897</v>
+        <v>10.78587689919378</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.28615369936681</v>
+        <v>19.54192878574668</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>21.30691737127633</v>
+        <v>16.90466145110535</v>
       </c>
       <c r="H19">
-        <v>6.705514638524209</v>
+        <v>10.74903307423667</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.28138146194505</v>
+        <v>15.27127695263133</v>
       </c>
       <c r="O19">
-        <v>11.58856402838143</v>
+        <v>14.79273355951095</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.437307081627</v>
+        <v>13.97660278242479</v>
       </c>
       <c r="C20">
-        <v>16.54131565891781</v>
+        <v>10.91381478267117</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.07166641606256</v>
+        <v>19.91656737790698</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>21.76777323203954</v>
+        <v>16.98498158251252</v>
       </c>
       <c r="H20">
-        <v>6.72659406711646</v>
+        <v>10.73658285360295</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.28287522781839</v>
+        <v>15.26632617581701</v>
       </c>
       <c r="O20">
-        <v>11.72000756052186</v>
+        <v>14.7870165085575</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.88748081893144</v>
+        <v>14.76367507730339</v>
       </c>
       <c r="C21">
-        <v>17.40754715413449</v>
+        <v>11.33166394944583</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.64958856562104</v>
+        <v>21.12734834900369</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>23.30430707191111</v>
+        <v>17.26413625239926</v>
       </c>
       <c r="H21">
-        <v>6.809985713065976</v>
+        <v>10.6977791605729</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.29327051482179</v>
+        <v>15.25176699943091</v>
       </c>
       <c r="O21">
-        <v>12.18053440647371</v>
+        <v>14.77428921083035</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.79707273854061</v>
+        <v>15.25451062510966</v>
       </c>
       <c r="C22">
-        <v>17.95315816689988</v>
+        <v>11.59555325538767</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.29149286268392</v>
+        <v>21.88309581376297</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>24.29997455370552</v>
+        <v>17.45312470743625</v>
       </c>
       <c r="H22">
-        <v>6.874360358625619</v>
+        <v>10.674685431394</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.30420757449776</v>
+        <v>15.24379322122525</v>
       </c>
       <c r="O22">
-        <v>12.64789062172533</v>
+        <v>14.77082722390246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.31507213821307</v>
+        <v>14.99469653958081</v>
       </c>
       <c r="C23">
-        <v>17.66383029610168</v>
+        <v>11.45556737675912</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.4189164889281</v>
+        <v>21.48298259774992</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>23.76931976242315</v>
+        <v>17.35168398073238</v>
       </c>
       <c r="H23">
-        <v>6.839066630015654</v>
+        <v>10.68680292095143</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.29798229424174</v>
+        <v>15.24790824784766</v>
       </c>
       <c r="O23">
-        <v>12.36276660615626</v>
+        <v>14.77222911523444</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.41295428700713</v>
+        <v>13.96334039684631</v>
       </c>
       <c r="C24">
-        <v>16.5268109407744</v>
+        <v>10.90683351763757</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.02876704324404</v>
+        <v>19.89617485944633</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>21.74251026573681</v>
+        <v>16.98053489009585</v>
       </c>
       <c r="H24">
-        <v>6.725390504186897</v>
+        <v>10.73725519796138</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.28277331204377</v>
+        <v>15.26659023133348</v>
       </c>
       <c r="O24">
-        <v>11.71271851739573</v>
+        <v>14.78730614927234</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.19478337812496</v>
+        <v>12.74959633622283</v>
       </c>
       <c r="C25">
-        <v>15.21240696250703</v>
+        <v>10.27716578769649</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.17044532012836</v>
+        <v>18.03071496381154</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>19.55990167954371</v>
+        <v>16.61070058034226</v>
       </c>
       <c r="H25">
-        <v>6.641861529855387</v>
+        <v>10.80134022437451</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.28328427828422</v>
+        <v>15.29339101683061</v>
       </c>
       <c r="O25">
-        <v>11.11119636839763</v>
+        <v>14.82424253864333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.76875250345507</v>
+        <v>20.41586819998901</v>
       </c>
       <c r="C2">
-        <v>9.783263982431103</v>
+        <v>14.16977489334824</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.64426960555375</v>
+        <v>30.1390650056105</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>16.36700783947495</v>
+        <v>18.05374385432038</v>
       </c>
       <c r="H2">
-        <v>10.85676619307149</v>
+        <v>6.610231450914353</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.31887641550286</v>
+        <v>11.29727476009285</v>
       </c>
       <c r="O2">
-        <v>14.86898206126878</v>
+        <v>10.71899126225465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.04976545271134</v>
+        <v>19.11846016990941</v>
       </c>
       <c r="C3">
-        <v>9.431048272091612</v>
+        <v>13.41747071038757</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.69130998461567</v>
+        <v>27.9582808853567</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>16.22074674863227</v>
+        <v>17.03749710960244</v>
       </c>
       <c r="H3">
-        <v>10.89943263847244</v>
+        <v>6.605504595103649</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.33975267415992</v>
+        <v>11.31480055237086</v>
       </c>
       <c r="O3">
-        <v>14.9101061168582</v>
+        <v>10.48402553580049</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.58164607670726</v>
+        <v>18.27636464351453</v>
       </c>
       <c r="C4">
-        <v>9.206720496589162</v>
+        <v>12.93355086502017</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.08038736009158</v>
+        <v>26.55467603507049</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>16.14055115690676</v>
+        <v>16.4177692150922</v>
       </c>
       <c r="H4">
-        <v>10.92813508225121</v>
+        <v>6.610198085249401</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.35435419603894</v>
+        <v>11.32938703009582</v>
       </c>
       <c r="O4">
-        <v>14.94063351715365</v>
+        <v>10.35457967525301</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38420636238841</v>
+        <v>17.92175642086213</v>
       </c>
       <c r="C5">
-        <v>9.113373427048833</v>
+        <v>12.73092663586812</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.82520848471167</v>
+        <v>25.96614286746587</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>16.11032450579814</v>
+        <v>16.16666854790602</v>
       </c>
       <c r="H5">
-        <v>10.94045961441528</v>
+        <v>6.613924735688586</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.36075373011077</v>
+        <v>11.33627274658007</v>
       </c>
       <c r="O5">
-        <v>14.9543925104811</v>
+        <v>10.30548379275392</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.35101932346483</v>
+        <v>17.86218260514137</v>
       </c>
       <c r="C6">
-        <v>9.097759585916151</v>
+        <v>12.69695725525243</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.78246917209293</v>
+        <v>25.86740891131513</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>16.10545453498606</v>
+        <v>16.12507268133163</v>
       </c>
       <c r="H6">
-        <v>10.94254397153341</v>
+        <v>6.614650306004174</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.36184352840801</v>
+        <v>11.33747240249775</v>
       </c>
       <c r="O6">
-        <v>14.956756586761</v>
+        <v>10.29754967490692</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57901032984231</v>
+        <v>18.27162862596994</v>
       </c>
       <c r="C7">
-        <v>9.205469271009816</v>
+        <v>12.93083999606522</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.07697073574904</v>
+        <v>26.54680628990768</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.14013353104891</v>
+        <v>16.41437640304863</v>
       </c>
       <c r="H7">
-        <v>10.92829875474677</v>
+        <v>6.610241125852251</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.35443868212986</v>
+        <v>11.32947610715114</v>
       </c>
       <c r="O7">
-        <v>14.94081374705108</v>
+        <v>10.35390286479064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.5263914581252</v>
+        <v>19.97795023765235</v>
       </c>
       <c r="C8">
-        <v>9.663548666584678</v>
+        <v>13.91500436480015</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.32118758913177</v>
+        <v>29.40034467701923</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>16.31460732282113</v>
+        <v>17.70266592107398</v>
       </c>
       <c r="H8">
-        <v>10.87095653797922</v>
+        <v>6.606967306372042</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.32570491134944</v>
+        <v>11.30251119919674</v>
       </c>
       <c r="O8">
-        <v>14.88206165448343</v>
+        <v>10.63485974752422</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.17199167523131</v>
+        <v>22.96445791260918</v>
       </c>
       <c r="C9">
-        <v>10.49413797716402</v>
+        <v>15.666877959339</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.67978125205491</v>
+        <v>34.49864713553845</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>16.73098608743184</v>
+        <v>20.2726484957955</v>
       </c>
       <c r="H9">
-        <v>10.77846819091577</v>
+        <v>6.665104563411671</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.2834718158024</v>
+        <v>11.28093613356147</v>
       </c>
       <c r="O9">
-        <v>14.80905814384943</v>
+        <v>11.30586453504285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.25123342279154</v>
+        <v>24.94219501288848</v>
       </c>
       <c r="C10">
-        <v>11.05883435247552</v>
+        <v>16.84235459132697</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.33890945944937</v>
+        <v>37.96390796961367</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>17.07899124896133</v>
+        <v>22.29557267253205</v>
       </c>
       <c r="H10">
-        <v>10.72279743622195</v>
+        <v>6.752995879715405</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.26099783240557</v>
+        <v>11.28552510304771</v>
       </c>
       <c r="O10">
-        <v>14.78157717454036</v>
+        <v>11.87444593223816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.71404772981935</v>
+        <v>25.79574577153346</v>
       </c>
       <c r="C11">
-        <v>11.3051191318475</v>
+        <v>17.35261334519033</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.05096805927518</v>
+        <v>39.48510418194645</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>17.2456579699058</v>
+        <v>23.20524897163305</v>
       </c>
       <c r="H11">
-        <v>10.70016168518192</v>
+        <v>6.804017053826003</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.25262046682644</v>
+        <v>11.29235829063758</v>
       </c>
       <c r="O11">
-        <v>14.77483138689691</v>
+        <v>12.14986768323498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.88526255942038</v>
+        <v>26.11240926181738</v>
       </c>
       <c r="C12">
-        <v>11.39680681745921</v>
+        <v>17.54231505678223</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.31450442040589</v>
+        <v>40.05373613526348</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>17.30990001103461</v>
+        <v>23.54824637176183</v>
       </c>
       <c r="H12">
-        <v>10.69197874622983</v>
+        <v>6.825023837098857</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.24971268020281</v>
+        <v>11.29565449475227</v>
       </c>
       <c r="O12">
-        <v>14.77310970222185</v>
+        <v>12.25659872162033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.84856810845013</v>
+        <v>26.04450044705716</v>
       </c>
       <c r="C13">
-        <v>11.37713102108689</v>
+        <v>17.5016159450651</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.25801812906082</v>
+        <v>39.93159179030545</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>17.29601531870635</v>
+        <v>23.47444010264682</v>
       </c>
       <c r="H13">
-        <v>10.69372376772159</v>
+        <v>6.820423096893187</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.25032717381931</v>
+        <v>11.29491265607753</v>
       </c>
       <c r="O13">
-        <v>14.77344338470698</v>
+        <v>12.23350358046027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.72821467350176</v>
+        <v>25.82192882083661</v>
       </c>
       <c r="C14">
-        <v>11.31269416584684</v>
+        <v>17.36829077560854</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.07277151160761</v>
+        <v>39.53203122841003</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>17.25092100311338</v>
+        <v>23.23349671483658</v>
       </c>
       <c r="H14">
-        <v>10.69948066764736</v>
+        <v>6.805710939470947</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.25237594516685</v>
+        <v>11.29261511646426</v>
       </c>
       <c r="O14">
-        <v>14.77467302544808</v>
+        <v>12.15859956601497</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.65396836194949</v>
+        <v>25.68474570317703</v>
       </c>
       <c r="C15">
-        <v>11.27301822421703</v>
+        <v>17.28616672015911</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.95850858006504</v>
+        <v>39.28634004445259</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>17.22344424352857</v>
+        <v>23.08572187671094</v>
       </c>
       <c r="H15">
-        <v>10.70305761877106</v>
+        <v>6.796921819240724</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.25366529938176</v>
+        <v>11.29130088257216</v>
       </c>
       <c r="O15">
-        <v>14.77553481126771</v>
+        <v>12.11303652924372</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.22042142469198</v>
+        <v>24.88549144186089</v>
       </c>
       <c r="C16">
-        <v>11.04252127669481</v>
+        <v>16.80851493738674</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.29151865693921</v>
+        <v>37.86342733438276</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>17.06826120938054</v>
+        <v>22.23591273313848</v>
       </c>
       <c r="H16">
-        <v>10.72433102283695</v>
+        <v>6.749892130180392</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.26158238313086</v>
+        <v>11.28517625446237</v>
       </c>
       <c r="O16">
-        <v>14.78213430153499</v>
+        <v>11.85678585678876</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.94724897119194</v>
+        <v>24.38341027082787</v>
       </c>
       <c r="C17">
-        <v>10.89836581732628</v>
+        <v>16.50921626220567</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.87143271024959</v>
+        <v>36.97673960504434</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>16.97515124039662</v>
+        <v>21.71188623659437</v>
       </c>
       <c r="H17">
-        <v>10.73807177962918</v>
+        <v>6.723938961566938</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.26691144763762</v>
+        <v>11.28265285772724</v>
       </c>
       <c r="O17">
-        <v>14.78766090471252</v>
+        <v>11.7038955144002</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.78747849111957</v>
+        <v>24.0902791353212</v>
       </c>
       <c r="C18">
-        <v>10.81445640698349</v>
+        <v>16.33476342390841</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.62579047592796</v>
+        <v>36.46151321302757</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>16.92238808757671</v>
+        <v>21.40947927137862</v>
       </c>
       <c r="H18">
-        <v>10.74622809576839</v>
+        <v>6.710044603460987</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.27015041192342</v>
+        <v>11.28164653166453</v>
       </c>
       <c r="O18">
-        <v>14.79138112824096</v>
+        <v>11.6175342423242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.73292794641661</v>
+        <v>23.99028116148433</v>
       </c>
       <c r="C19">
-        <v>10.78587689919378</v>
+        <v>16.27530129172898</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.54192878574668</v>
+        <v>36.28615369936678</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>16.90466145110535</v>
+        <v>21.3069173712763</v>
       </c>
       <c r="H19">
-        <v>10.74903307423667</v>
+        <v>6.705514638524209</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.27127695263133</v>
+        <v>11.28138146194508</v>
       </c>
       <c r="O19">
-        <v>14.79273355951095</v>
+        <v>11.58856402838145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.97660278242479</v>
+        <v>24.43730708162698</v>
       </c>
       <c r="C20">
-        <v>10.91381478267117</v>
+        <v>16.54131565891781</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.91656737790698</v>
+        <v>37.07166641606252</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>16.98498158251252</v>
+        <v>21.76777323203956</v>
       </c>
       <c r="H20">
-        <v>10.73658285360295</v>
+        <v>6.726594067116485</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.26632617581701</v>
+        <v>11.28287522781848</v>
       </c>
       <c r="O20">
-        <v>14.7870165085575</v>
+        <v>11.72000756052189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.76367507730339</v>
+        <v>25.88748081893144</v>
       </c>
       <c r="C21">
-        <v>11.33166394944583</v>
+        <v>17.40754715413449</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.12734834900369</v>
+        <v>39.64958856562104</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>17.26413625239926</v>
+        <v>23.30430707191104</v>
       </c>
       <c r="H21">
-        <v>10.6977791605729</v>
+        <v>6.809985713066012</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.25176699943091</v>
+        <v>11.29327051482187</v>
       </c>
       <c r="O21">
-        <v>14.77428921083035</v>
+        <v>12.18053440647375</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.25451062510966</v>
+        <v>26.79707273854066</v>
       </c>
       <c r="C22">
-        <v>11.59555325538767</v>
+        <v>17.95315816690001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.88309581376297</v>
+        <v>41.29149286268397</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>17.45312470743625</v>
+        <v>24.29997455370566</v>
       </c>
       <c r="H22">
-        <v>10.674685431394</v>
+        <v>6.874360358625539</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.24379322122525</v>
+        <v>11.30420757449774</v>
       </c>
       <c r="O22">
-        <v>14.77082722390246</v>
+        <v>12.6478906217254</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99469653958081</v>
+        <v>26.31507213821308</v>
       </c>
       <c r="C23">
-        <v>11.45556737675912</v>
+        <v>17.66383029610162</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.48298259774992</v>
+        <v>40.4189164889282</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>17.35168398073238</v>
+        <v>23.76931976242308</v>
       </c>
       <c r="H23">
-        <v>10.68680292095143</v>
+        <v>6.839066630015641</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.24790824784766</v>
+        <v>11.29798229424171</v>
       </c>
       <c r="O23">
-        <v>14.77222911523444</v>
+        <v>12.36276660615628</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.96334039684631</v>
+        <v>24.41295428700712</v>
       </c>
       <c r="C24">
-        <v>10.90683351763757</v>
+        <v>16.52681094077442</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.89617485944633</v>
+        <v>37.02876704324395</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>16.98053489009585</v>
+        <v>21.74251026573678</v>
       </c>
       <c r="H24">
-        <v>10.73725519796138</v>
+        <v>6.725390504186882</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.26659023133348</v>
+        <v>11.28277331204377</v>
       </c>
       <c r="O24">
-        <v>14.78730614927234</v>
+        <v>11.71271851739571</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.74959633622283</v>
+        <v>22.19478337812499</v>
       </c>
       <c r="C25">
-        <v>10.27716578769649</v>
+        <v>15.21240696250694</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.03071496381154</v>
+        <v>33.17044532012842</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>16.61070058034226</v>
+        <v>19.55990167954369</v>
       </c>
       <c r="H25">
-        <v>10.80134022437451</v>
+        <v>6.641861529855314</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.29339101683061</v>
+        <v>11.28328427828418</v>
       </c>
       <c r="O25">
-        <v>14.82424253864333</v>
+        <v>11.11119636839763</v>
       </c>
     </row>
   </sheetData>
